--- a/data/trans_dic/PCS12_SP_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,69</t>
+          <t>0,04; 3,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 10,2</t>
+          <t>2,58; 10,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,54</t>
+          <t>1,52; 5,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,69; 13,83</t>
+          <t>6,77; 14,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 10,24</t>
+          <t>4,14; 9,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,58</t>
+          <t>5,89; 10,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 15,09</t>
+          <t>9,28; 15,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 17,1</t>
+          <t>12,37; 17,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 15,48</t>
+          <t>11,61; 15,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>33,73%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,49; 41,92</t>
+          <t>18,57; 72,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,36; 27,2</t>
+          <t>19,52; 26,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,32; 33,98</t>
+          <t>20,95; 59,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>34,56%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,52; 35,13</t>
+          <t>27,75; 35,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,34; 40,77</t>
+          <t>34,34; 40,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,12; 36,91</t>
+          <t>32,29; 37,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>50,2%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>55,03%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>70,87%</t>
+          <t>61,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>72,95%</t>
+          <t>61,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>56,67%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>65,25%</t>
+          <t>52,67%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>31,79%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,9; 54,62</t>
+          <t>32,94; 43,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,6; 59,44</t>
+          <t>37,53; 49,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,78; 50,09</t>
+          <t>28,3; 38,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,78; 45,75</t>
+          <t>28,0; 35,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,38; 74,32</t>
+          <t>55,89; 65,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>69,83; 76,42</t>
+          <t>56,04; 66,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>60,22; 67,72</t>
+          <t>46,61; 57,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,03; 64,38</t>
+          <t>11,44; 49,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,01; 64,85</t>
+          <t>46,72; 54,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>62,52; 67,74</t>
+          <t>48,58; 56,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>53,24; 58,84</t>
+          <t>40,02; 47,46</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>39,63; 55,3</t>
+          <t>16,83; 41,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>70,21%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>61,55%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>57,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>83,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>75,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>78,32%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>69,74%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>70,03%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>60,21; 72,76</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>63,65; 76,3</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>55,89; 67,35</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>52,94; 62,12</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>76,17; 84,97</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>79,29; 87,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>69,98; 79,7</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>75,69; 81,38</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>71,88; 79,04</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>74,71; 81,72</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>65,94; 73,61</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>67,51; 72,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27,08%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27,2%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29,15%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>28,14%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>21,59%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>21,52%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>27,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>14,68; 17,18</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>16,44; 19,23</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>15,46; 18,02</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>21,28; 27,16</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>21,1; 42,84</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>25,72; 28,95</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>27,51; 30,72</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>24,49; 27,85</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>26,52; 31,33</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 30,68</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>20,61; 22,62</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>22,65; 24,66</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>20,43; 22,54</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>25,13; 28,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 36,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/PCS12_SP_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,25</t>
+          <t>2,74; 6,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,76</t>
+          <t>2,04; 5,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,82</t>
+          <t>0,73; 3,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,72</t>
+          <t>0,04; 4,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,6</t>
+          <t>3,6; 7,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,52</t>
+          <t>4,46; 9,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,14</t>
+          <t>2,92; 7,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 10,08</t>
+          <t>2,4; 10,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,25</t>
+          <t>3,67; 6,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,65</t>
+          <t>3,7; 6,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,6</t>
+          <t>2,19; 4,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,22</t>
+          <t>1,62; 5,58</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,21</t>
+          <t>2,8; 5,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,64</t>
+          <t>4,69; 8,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,96</t>
+          <t>3,23; 6,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 14,06</t>
+          <t>6,84; 14,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 11,85</t>
+          <t>7,11; 11,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,35</t>
+          <t>4,99; 9,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,24</t>
+          <t>5,0; 9,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,82</t>
+          <t>4,1; 9,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,07</t>
+          <t>5,28; 8,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,19</t>
+          <t>5,34; 8,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,43</t>
+          <t>4,51; 7,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,43</t>
+          <t>6,03; 10,73</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,14</t>
+          <t>5,1; 9,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,75</t>
+          <t>6,97; 11,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 9,52</t>
+          <t>5,45; 9,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 15,15</t>
+          <t>9,28; 15,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,3; 16,33</t>
+          <t>11,34; 16,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,26; 17,71</t>
+          <t>12,24; 17,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,67</t>
+          <t>8,15; 12,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,19</t>
+          <t>12,49; 17,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,25</t>
+          <t>8,89; 12,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,39; 14,05</t>
+          <t>10,4; 14,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 10,66</t>
+          <t>7,32; 10,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,61; 15,55</t>
+          <t>11,53; 15,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 14,4</t>
+          <t>8,66; 14,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 16,37</t>
+          <t>10,55; 16,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 17,9</t>
+          <t>11,98; 17,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 72,36</t>
+          <t>18,41; 74,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,72; 28,22</t>
+          <t>20,64; 28,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 23,7</t>
+          <t>16,84; 23,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 22,22</t>
+          <t>16,15; 22,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,52; 26,57</t>
+          <t>20,46; 26,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 19,91</t>
+          <t>15,34; 20,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 18,63</t>
+          <t>14,23; 18,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,99; 19,24</t>
+          <t>14,92; 19,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,95; 59,67</t>
+          <t>21,09; 60,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,14; 33,02</t>
+          <t>24,09; 33,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,1; 28,25</t>
+          <t>19,68; 28,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,92; 28,39</t>
+          <t>20,56; 28,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,75; 35,41</t>
+          <t>28,2; 35,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,99; 38,36</t>
+          <t>29,18; 38,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,88; 48,82</t>
+          <t>38,76; 48,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,92; 41,1</t>
+          <t>31,92; 41,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,34; 40,74</t>
+          <t>34,51; 40,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,11; 34,49</t>
+          <t>28,14; 34,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,64; 37,49</t>
+          <t>30,97; 37,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 33,38</t>
+          <t>27,29; 33,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,29; 37,18</t>
+          <t>32,07; 37,05</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,94; 43,91</t>
+          <t>32,57; 43,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,53; 49,21</t>
+          <t>37,32; 49,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,3; 38,81</t>
+          <t>28,84; 38,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,0; 35,92</t>
+          <t>28,38; 36,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,89; 65,76</t>
+          <t>55,98; 66,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,04; 66,39</t>
+          <t>56,11; 66,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,61; 57,64</t>
+          <t>46,63; 57,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,44; 49,07</t>
+          <t>13,66; 48,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,72; 54,27</t>
+          <t>47,06; 54,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>48,58; 56,82</t>
+          <t>48,33; 56,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>40,02; 47,46</t>
+          <t>39,53; 46,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 41,13</t>
+          <t>17,72; 41,1</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>60,21; 72,76</t>
+          <t>60,21; 72,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,65; 76,3</t>
+          <t>64,18; 75,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>55,89; 67,35</t>
+          <t>55,52; 66,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52,94; 62,12</t>
+          <t>52,7; 61,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>76,17; 84,97</t>
+          <t>76,12; 85,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,29; 87,19</t>
+          <t>79,3; 87,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,98; 79,7</t>
+          <t>69,36; 79,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>75,69; 81,38</t>
+          <t>75,84; 81,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,88; 79,04</t>
+          <t>71,61; 79,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74,71; 81,72</t>
+          <t>74,77; 81,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>65,94; 73,61</t>
+          <t>65,55; 73,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>67,51; 72,7</t>
+          <t>67,61; 72,54</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,68; 17,18</t>
+          <t>14,65; 17,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,44; 19,23</t>
+          <t>16,72; 19,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,46; 18,02</t>
+          <t>15,43; 17,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,1; 42,84</t>
+          <t>21,12; 46,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,72; 28,95</t>
+          <t>25,62; 28,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,51; 30,72</t>
+          <t>27,55; 30,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,49; 27,85</t>
+          <t>24,67; 27,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,84; 30,68</t>
+          <t>23,57; 30,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,61; 22,62</t>
+          <t>20,52; 22,62</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,65; 24,66</t>
+          <t>22,61; 24,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20,43; 22,54</t>
+          <t>20,46; 22,54</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>24,41; 36,23</t>
+          <t>24,18; 35,49</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21004</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16143</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25348</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28249</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18456</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17336</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>46352</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44392</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26222</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22018</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13522; 30981</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9248; 25495</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3057; 15570</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>167; 16710</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16831; 37027</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19190; 39876</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11557; 28513</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7469; 32132</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>35280; 60181</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32693; 58866</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17887; 38094</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11509; 39724</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31297</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>43983</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28079</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41415</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58328</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>42253</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38560</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34706</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>89625</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>86236</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>66639</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>76121</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20566; 43926</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>32190; 59577</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19057; 40048</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>28986; 59860</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>44485; 74361</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30471; 56700</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28152; 52956</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20948; 49474</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>71853; 111000</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>69318; 106685</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>52045; 85368</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56373; 100286</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>44192</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61965</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>49342</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64370</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>95194</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>105916</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>68047</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>79704</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>139386</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>167880</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>117389</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>144074</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32572; 57891</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>47552; 77638</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36481; 63257</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>49679; 81803</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>78187; 115686</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>87033; 126877</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>53932; 84440</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67650; 94922</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>118072; 162559</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>144774; 197661</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>97328; 140714</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>124233; 166809</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>58365</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>80160</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>96502</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>369498</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>125062</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>121823</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>123116</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>168444</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>183427</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>201983</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>219618</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>537942</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44938; 77366</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>64872; 100383</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>77411; 116041</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>163037; 659220</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>106415; 146332</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>103774; 144046</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>104838; 147625</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>145129; 190219</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>158782; 207323</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>175176; 230237</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>193206; 246734</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>336329; 958395</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>110581</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>102188</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>114793</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>175705</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>135446</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>196835</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>180469</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>204687</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>246027</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>299024</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>295262</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>380392</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>93149; 130052</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>84524; 121092</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>98261; 136580</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>156478; 197507</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>117899; 154380</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>173560; 217446</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>158572; 204148</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>188286; 222222</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>222519; 273476</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>271708; 329998</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>265972; 328795</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>352920; 407783</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>111703</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>132552</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>111697</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>116237</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>209544</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>217088</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>197898</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>192278</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>321246</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>349639</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>309595</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>308515</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>95291; 128494</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>115619; 152924</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>96431; 130346</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>103233; 131257</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>191962; 226932</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>198627; 235917</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>176147; 217690</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>82882; 297203</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>299059; 347739</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>320813; 375434</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>281500; 334543</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>171971; 398854</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>140539</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>175427</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>158171</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>160759</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>270151</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>324925</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>300165</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>328160</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>410689</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>500353</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>458336</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>488919</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>126366; 152570</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>160353; 189701</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>142682; 170998</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>147776; 172815</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>254163; 284935</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>308466; 338789</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>277556; 319013</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>316778; 340479</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>389422; 429687</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>477682; 522140</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>430787; 484550</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>472025; 506408</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2759</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>517680</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>612418</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>566350</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>932665</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>919072</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1037089</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>926711</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1025315</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1436752</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1649508</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1493061</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1957981</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>479996; 560644</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>573040; 658524</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>523746; 609668</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>727315; 1613373</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>865860; 971428</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>980169; 1088966</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>874369; 984036</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>858752; 1118072</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1365870; 1505658</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1579453; 1724670</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1419595; 1563796</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1713593; 2514992</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>